--- a/xxxxx001_HiSLIP通信の概要と仕組み/305_Table 4_Message_Type_Value_Definitions.xlsx
+++ b/xxxxx001_HiSLIP通信の概要と仕組み/305_Table 4_Message_Type_Value_Definitions.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\x0000001_HiSLIP 通信プロトコルの概要と仕組み\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\xxxxx001_HiSLIP通信の概要と仕組み\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA258EE0-0A16-452A-87B5-EE6863CB4603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21335D2A-3A5F-4510-A1C6-98C4CDDA5F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40905" yWindow="3540" windowWidth="23865" windowHeight="16455" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="41535" yWindow="2535" windowWidth="28800" windowHeight="15345" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$2:$K$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$2:$M$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>Channel</t>
   </si>
@@ -310,6 +310,37 @@
     <rPh sb="0" eb="2">
       <t>リョウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Either</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信者</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -402,9 +433,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -442,7 +473,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -548,7 +579,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -690,7 +721,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -701,1170 +732,1362 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:K43"/>
+  <dimension ref="B2:M43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C16"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2">
+      <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>3</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="I7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
         <v>4</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="I8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>6</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>7</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="2">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="2">
-        <v>8</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K11" s="2">
+        <v>8</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>9</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="I12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2">
         <v>9</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="I13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="2">
         <v>10</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>11</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="I14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="2">
         <v>11</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>12</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="2">
+      <c r="K15" s="2">
         <v>12</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>13</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="2">
+      <c r="K16" s="2">
         <v>13</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="I17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="2">
         <v>14</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>15</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="I18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2">
         <v>15</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>16</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="I19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="2">
         <v>16</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>17</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="I20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="2">
         <v>17</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>18</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="I21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="2">
         <v>18</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>19</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="I22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="2">
         <v>19</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>20</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="I23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="2">
         <v>20</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>21</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="I24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="2">
         <v>21</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>22</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="I25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="2">
         <v>22</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>23</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="I26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="2">
         <v>23</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>24</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="I27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="2">
         <v>24</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>25</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="2">
+      <c r="I28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="2">
         <v>25</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="L28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>26</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="2">
+      <c r="K29" s="2">
         <v>26</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>27</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="2">
+      <c r="K30" s="2">
         <v>27</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>28</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I31" s="2">
+      <c r="K31" s="2">
         <v>28</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K31" s="3">
+      <c r="M31" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>29</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="2">
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="2">
         <v>29</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>30</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="2">
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="2">
         <v>30</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34" s="2">
         <v>31</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="2">
+      <c r="K34" s="2">
         <v>31</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K34" s="3">
+      <c r="M34" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="2">
         <v>32</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="2">
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="2">
         <v>32</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <v>33</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="2">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="2">
         <v>33</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K36" s="3">
+      <c r="M36" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <v>34</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="2">
+      <c r="K37" s="2">
         <v>34</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K37" s="3">
+      <c r="M37" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
         <v>35</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>35</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K38" s="3">
+      <c r="M38" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>36</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="2">
+      <c r="K39" s="2">
         <v>36</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K39" s="3">
+      <c r="M39" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="2">
+      <c r="E40" s="2">
         <v>37</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="2">
+      <c r="K40" s="2">
         <v>37</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K40" s="3">
+      <c r="M40" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <v>38</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I41" s="2">
+      <c r="K41" s="2">
         <v>38</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="2"/>
+      <c r="E42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B43" s="2" t="s">
         <v>31</v>
       </c>
@@ -1872,29 +2095,35 @@
         <v>84</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K43" s="3"/>
+      <c r="M43" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="G2:K43" xr:uid="{BBD7E998-E50A-4CAF-B8BD-C77C96FFCF26}"/>
+  <autoFilter ref="H2:M43" xr:uid="{BBD7E998-E50A-4CAF-B8BD-C77C96FFCF26}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="25" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>